--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jj_busy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E879C16-028D-4BFD-8A00-5D8E87E46A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EB91E-4D51-40C9-8ED6-8842C4B0C184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电器" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="大厅装饰" sheetId="5" r:id="rId4"/>
     <sheet name="楼梯扶手" sheetId="7" r:id="rId5"/>
     <sheet name="木门" sheetId="9" r:id="rId6"/>
-    <sheet name="美缝" sheetId="8" r:id="rId7"/>
+    <sheet name="填缝" sheetId="8" r:id="rId7"/>
     <sheet name="阳台扶手" sheetId="10" r:id="rId8"/>
     <sheet name="扇灰&amp;乳胶漆" sheetId="11" r:id="rId9"/>
     <sheet name="天花" sheetId="12" r:id="rId10"/>
+    <sheet name="照明" sheetId="13" r:id="rId11"/>
+    <sheet name="杂项" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="236">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,14 +134,6 @@
   </si>
   <si>
     <t>洗碗机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.44.66f827ecwdV5L6&amp;id=570252623948&amp;ns=1&amp;abbucket=2#detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,6 +834,125 @@
   <si>
     <t>区域</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.29.7f981dceUFye7D&amp;id=625199337534&amp;ns=1&amp;abbucket=20#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10732713677.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带（DC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z2k.11010449.931864.2.6fd7509dogvYpX&amp;scm=1007.13982.82927.0&amp;id=632853983367&amp;last_time=1637680539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10w吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/52811999724.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10632480926.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减</t>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接或备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超六网线100m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖保护垫50㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动高压水枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机信号增幅器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛排插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC屏蔽头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃刮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉货小车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -989,11 +1102,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1841,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1872,10 +1985,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1899,7 +2012,7 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1917,7 +2030,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,20 +2068,20 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>3139</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1979,17 +2092,17 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>1479</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1997,305 +2110,305 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>636</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9">
+        <v>3947</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="F10">
         <v>1449</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>634.85</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
       </c>
       <c r="E17">
         <v>39</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>3024.98</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
         <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
       </c>
       <c r="E26">
         <v>39</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
         <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
       </c>
       <c r="E30">
         <v>39</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2303,23 +2416,23 @@
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2327,80 +2440,80 @@
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>3769</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2408,68 +2521,68 @@
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
         <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" t="s">
-        <v>55</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>62</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
         <v>63</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
       </c>
       <c r="F45">
         <v>694</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46">
         <f>SUM(E2:E45)</f>
-        <v>27012.85</v>
+        <v>30959.85</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,11 +2593,11 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F49">
         <f>SUM(E46,F48)</f>
-        <v>36857.83</v>
+        <v>40804.83</v>
       </c>
     </row>
   </sheetData>
@@ -2526,31 +2639,31 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA7D41A-DEEA-48C7-BE58-3BC57F03FEA0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="7">
         <v>21.6</v>
@@ -2564,7 +2677,7 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="7">
         <v>13.3</v>
@@ -2578,7 +2691,7 @@
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="7">
         <v>3.5</v>
@@ -2592,7 +2705,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="7">
         <v>7.94</v>
@@ -2606,7 +2719,7 @@
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="7">
         <v>2.96</v>
@@ -2620,7 +2733,7 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="7">
         <v>4.68</v>
@@ -2634,13 +2747,27 @@
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="12">
-        <f>SUM(D2:D7)</f>
-        <v>6889.7</v>
+        <v>208</v>
+      </c>
+      <c r="B8" s="7">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11">
+        <f>SUM(D2:D8)</f>
+        <v>7819.7</v>
       </c>
     </row>
   </sheetData>
@@ -2650,11 +2777,396 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB10B5-3BB8-4C76-B405-155B335BC6BF}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2*C2</f>
+        <v>486</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4">
+        <v>1198</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E3:E8" si="0">D4*C4</f>
+        <v>1198</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" location="crumb-wrap" xr:uid="{ACEEF263-B691-48EB-AE6A-C40C5434FA21}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{D04D5628-FEF2-4D41-862A-0456889A3D79}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{87E3BE50-DF66-48AF-9F7A-31A30FCDFD1E}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{21633C77-8C4A-4928-A6EA-3219019774EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A22AE47-2351-48E6-8751-649A31BBE403}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2">
+        <v>240</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2-D2</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">B3*C3-D3</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>208</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>27.51</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>180.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5">
+        <v>419</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6">
+        <v>23.59</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>23.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8">
+        <v>22.75</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9">
+        <v>39.22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10">
+        <v>30.59</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12">
+        <v>168</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>27.22</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>308.77999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13">
+        <v>157</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>1702.4199999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A24E19A-48EF-4D10-9DAA-3106E9BA28BA}">
   <dimension ref="E2:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
@@ -2668,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2678,7 +3190,7 @@
         <v>1662.29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2705,7 +3217,7 @@
     </row>
     <row r="15" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2713,7 +3225,7 @@
         <v>198</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2724,7 +3236,7 @@
     </row>
     <row r="33" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2732,7 +3244,7 @@
         <v>145</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,7 +3252,7 @@
     </row>
     <row r="50" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,12 +3260,12 @@
         <v>2999</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2761,12 +3273,12 @@
         <v>1999</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,12 +3286,12 @@
         <v>172.69</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2787,7 +3299,7 @@
         <v>737.6</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2795,7 +3307,7 @@
     </row>
     <row r="105" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2803,7 +3315,7 @@
         <v>4871.95</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2812,7 +3324,7 @@
         <v>12785.529999999999</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2847,10 +3359,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -2861,21 +3373,21 @@
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4">
         <v>508</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>5.26</v>
@@ -2885,7 +3397,7 @@
         <v>5260</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2903,42 +3415,45 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" s="4">
         <v>2262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" s="4">
         <v>7000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2963,24 +3478,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
         <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2">
         <v>15.5</v>
@@ -3022,27 +3537,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>7668</v>
@@ -3060,10 +3575,10 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>1230</v>
@@ -3081,10 +3596,10 @@
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <v>1160</v>
@@ -3102,10 +3617,10 @@
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>1160</v>
@@ -3123,10 +3638,10 @@
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6">
         <v>1190</v>
@@ -3144,10 +3659,10 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -3165,10 +3680,10 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8">
         <v>1160</v>
@@ -3202,23 +3717,23 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3229,7 +3744,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4">
         <f>A2*B2</f>
@@ -3247,118 +3762,118 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>139</v>
+      <c r="A3" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="B3">
         <v>2.145</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4">
         <v>2.125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5">
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6">
         <v>2.3250000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7">
         <v>2.5049999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8">
         <v>2.99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9">
         <v>2.82</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10">
         <v>2.82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11">
         <v>3.0049999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12">
         <v>2.7850000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>144</v>
+      <c r="A14" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="B14">
         <v>2.7850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15">
         <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16">
         <f>SUM(B3:B15)</f>
@@ -3367,16 +3882,15 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18">
-        <f>B16*270</f>
-        <v>9027.4499999999989</v>
+        <v>143</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E21">
         <v>285</v>
@@ -3397,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A63133-0DC2-4812-B292-805F541C3FA2}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3409,10 +3923,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3443,32 +3957,32 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="C5" s="7">
         <v>5.0999999999999996</v>
@@ -3487,9 +4001,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="7">
         <v>3.08</v>
@@ -3508,9 +4022,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="7">
         <v>3.12</v>
@@ -3529,9 +4043,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="7">
         <v>3.15</v>
@@ -3552,9 +4066,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="7">
         <v>4.8</v>
@@ -3573,9 +4087,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="7">
         <v>7.2</v>
@@ -3594,9 +4108,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="7">
         <v>1.33</v>
@@ -3630,11 +4144,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>164</v>
+      <c r="A13" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="7">
         <v>3.15</v>
@@ -3655,9 +4169,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="7">
         <v>3.3</v>
@@ -3678,9 +4192,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="7">
         <v>4.6500000000000004</v>
@@ -3701,9 +4215,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" s="7">
         <v>1.44</v>
@@ -3722,9 +4236,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="7">
         <v>2.62</v>
@@ -3743,9 +4257,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="7">
         <v>5.0999999999999996</v>
@@ -3764,15 +4278,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
@@ -3785,9 +4299,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="7">
         <v>3.09</v>
@@ -3806,9 +4320,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" s="7">
         <v>2.4</v>
@@ -3842,11 +4356,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>179</v>
+      <c r="A23" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="7">
         <v>5.0999999999999996</v>
@@ -3867,9 +4381,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
@@ -3903,11 +4417,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>180</v>
+      <c r="A26" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="7">
         <v>3.08</v>
@@ -3926,15 +4440,15 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7">
@@ -3946,9 +4460,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3956,7 +4470,7 @@
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F29" s="10">
         <f>SUM(F5:F27)</f>
@@ -3969,30 +4483,30 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
         <v>183</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>184</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>185</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>186</v>
       </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" t="s">
-        <v>188</v>
-      </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B32">
         <v>240</v>
@@ -4019,7 +4533,7 @@
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G34" s="2">
         <f>SUM(G29,H32)</f>

--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EB91E-4D51-40C9-8ED6-8842C4B0C184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B9E124-A38B-44A2-A8A3-C5EFCE84411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电器" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="天花" sheetId="12" r:id="rId10"/>
     <sheet name="照明" sheetId="13" r:id="rId11"/>
     <sheet name="杂项" sheetId="14" r:id="rId12"/>
+    <sheet name=" 洁具" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="266">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -952,6 +953,126 @@
   </si>
   <si>
     <t>拉货小车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/54663742736.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150W灯带电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60W灯带电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门门楣玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1588*330*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网口面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一体洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单冷水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q105B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴缸龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手盆水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA04-4钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸巾盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TK26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD75-60mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼公共厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1082,7 +1203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1106,6 +1227,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1954,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -2779,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB10B5-3BB8-4C76-B405-155B335BC6BF}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2832,102 +2956,173 @@
       <c r="B3" t="s">
         <v>213</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3*C3</f>
+        <v>245</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C4">
-        <v>1198</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E3:E8" si="0">D4*C4</f>
+      <c r="E4" s="4">
+        <f>D4*C4</f>
+        <v>40</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5">
         <v>1198</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="0">D5*C5</f>
+        <v>1198</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>216</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>217</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>99</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>118</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>210</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>213</v>
       </c>
+      <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="4">
         <v>100</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="E14" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f>SUM(E2:E11)-E13-E14</f>
+        <v>2395</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="crumb-wrap" xr:uid="{ACEEF263-B691-48EB-AE6A-C40C5434FA21}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{D04D5628-FEF2-4D41-862A-0456889A3D79}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{87E3BE50-DF66-48AF-9F7A-31A30FCDFD1E}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{21633C77-8C4A-4928-A6EA-3219019774EF}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{D04D5628-FEF2-4D41-862A-0456889A3D79}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{87E3BE50-DF66-48AF-9F7A-31A30FCDFD1E}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{21633C77-8C4A-4928-A6EA-3219019774EF}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{CC838A3A-3FBF-4CCF-90FB-EA2357826D52}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{DA1C8954-CC84-4B98-95D5-67680A2952EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A22AE47-2351-48E6-8751-649A31BBE403}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2981,7 +3176,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">B3*C3-D3</f>
+        <f t="shared" ref="E3:E15" si="0">B3*C3-D3</f>
         <v>194</v>
       </c>
     </row>
@@ -3148,17 +3343,254 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14">
+        <v>240</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15">
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E14">
-        <f>SUM(E2:E13)</f>
-        <v>1702.4199999999998</v>
+      <c r="E16" s="4">
+        <f>SUM(E2:E15)</f>
+        <v>2102.42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7CB05-9F2C-4DF0-95F3-270390B5B694}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3550</v>
+      </c>
+      <c r="F2">
+        <f>E2*0.2</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>315</v>
+      </c>
+      <c r="F3">
+        <f>E3*0.2</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3166,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A24E19A-48EF-4D10-9DAA-3106E9BA28BA}">
   <dimension ref="E2:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
@@ -3415,7 +3847,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3524,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBD4AFB-5004-47CD-91BE-C937A8BF6DB6}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3575,34 +4007,28 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="C3">
-        <v>1230</v>
-      </c>
-      <c r="D3">
-        <v>77</v>
-      </c>
-      <c r="E3">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">SUM(C3:E3)</f>
-        <v>1487</v>
+        <f>SUM(C3:E3)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>1160</v>
+        <v>1230</v>
       </c>
       <c r="D4">
         <v>77</v>
@@ -3611,16 +4037,16 @@
         <v>180</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1417</v>
+        <f t="shared" ref="F4:F9" si="0">SUM(C4:E4)</f>
+        <v>1487</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>1160</v>
@@ -3638,13 +4064,13 @@
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6">
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="D6">
         <v>77</v>
@@ -3654,18 +4080,18 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>1447</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C7">
-        <v>800</v>
+        <v>1190</v>
       </c>
       <c r="D7">
         <v>77</v>
@@ -3675,18 +4101,18 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1057</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C8">
-        <v>1160</v>
+        <v>800</v>
       </c>
       <c r="D8">
         <v>77</v>
@@ -3696,13 +4122,34 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <v>1160</v>
+      </c>
+      <c r="D9">
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <v>180</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>1417</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9">
-        <f>SUM(F2:F8)</f>
-        <v>16350</v>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="4">
+        <f>SUM(F2:F9)</f>
+        <v>16441</v>
       </c>
     </row>
   </sheetData>

--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B9E124-A38B-44A2-A8A3-C5EFCE84411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696B951E-59C5-42F7-B828-F728ABA5B9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电器" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="天花" sheetId="12" r:id="rId10"/>
     <sheet name="照明" sheetId="13" r:id="rId11"/>
     <sheet name="杂项" sheetId="14" r:id="rId12"/>
-    <sheet name=" 洁具" sheetId="15" r:id="rId13"/>
+    <sheet name=" 净洁具" sheetId="17" r:id="rId13"/>
+    <sheet name=" 洁具五金" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="303">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,10 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>筒灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,210 +866,362 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://item.jd.com/10632480926.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减</t>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接或备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超六网线100m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖保护垫50㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动高压水枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机信号增幅器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛排插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC屏蔽头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃刮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉货小车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/54663742736.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150W灯带电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60W灯带电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门门楣玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1588*330*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网口面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一体洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单冷水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q105B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴缸龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸巾盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TK26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD75-60mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼公共厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手盘冷暖水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M304-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴缸龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸巾盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼主人厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三楼厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*40*82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Φ41*85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70*39*66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51*36*78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43*36*74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手盆冷暖水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M304-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA02-4钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼套房厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5022-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1037-方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9招财进宝C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E8041-正方黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8010-白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三楼阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10w吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>吸顶灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z2k.11010449.931864.2.6fd7509dogvYpX&amp;scm=1007.13982.82927.0&amp;id=632853983367&amp;last_time=1637680539</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走廊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10w吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/52811999724.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/10632480926.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减</t>
-  </si>
-  <si>
-    <t>offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接或备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超六网线100m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖保护垫50㎡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动高压水枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机信号增幅器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公牛插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公牛排插</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚擦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC屏蔽头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃刮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉货小车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/54663742736.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150W灯带电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60W灯带电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大门门楣玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1588*330*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网口面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一楼走廊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一体洗手盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单冷水龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q105B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴缸龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手盆水龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA04-4钩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钩子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸巾盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TK26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>置物架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TD75-60mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二楼公共厕所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水箱</t>
+    <t>一楼楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿欧大门顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三楼厕所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -2903,15 +3052,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB10B5-3BB8-4C76-B405-155B335BC6BF}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2919,201 +3068,351 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <f>E2*D2</f>
+        <v>311.10000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <f>E4*D4</f>
+        <v>486</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F5" s="4">
+        <f>E5*D5</f>
+        <v>245</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f>E6*D6</f>
+        <v>40</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7">
+        <v>813</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F25" si="0">E7*D7</f>
+        <v>813</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11">
+        <v>144</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13">
+        <v>325</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15">
+        <v>99</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17">
+        <v>112.5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>209</v>
       </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4">
-        <f>D2*C2</f>
-        <v>486</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3">
+      <c r="D20">
         <v>49</v>
       </c>
-      <c r="D3">
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="E3" s="4">
-        <f>D3*C3</f>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
+      <c r="G20" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
-        <f>D4*C4</f>
-        <v>40</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5">
-        <v>1198</v>
-      </c>
-      <c r="D5">
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23">
+        <v>99</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E11" si="0">D5*C5</f>
-        <v>1198</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7">
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25">
+        <v>99</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F25" s="4">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10">
-        <v>49</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="4">
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="E14" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <f>SUM(E2:E11)-E13-E14</f>
-        <v>2395</v>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f>SUM(F2:F25)-F27-F28</f>
+        <v>3469.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="crumb-wrap" xr:uid="{ACEEF263-B691-48EB-AE6A-C40C5434FA21}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{D04D5628-FEF2-4D41-862A-0456889A3D79}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{87E3BE50-DF66-48AF-9F7A-31A30FCDFD1E}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{21633C77-8C4A-4928-A6EA-3219019774EF}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{CC838A3A-3FBF-4CCF-90FB-EA2357826D52}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{DA1C8954-CC84-4B98-95D5-67680A2952EF}"/>
+    <hyperlink ref="G4" r:id="rId1" location="crumb-wrap" xr:uid="{ACEEF263-B691-48EB-AE6A-C40C5434FA21}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{21633C77-8C4A-4928-A6EA-3219019774EF}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{CC838A3A-3FBF-4CCF-90FB-EA2357826D52}"/>
+    <hyperlink ref="G20" r:id="rId4" xr:uid="{DA1C8954-CC84-4B98-95D5-67680A2952EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3135,21 +3434,21 @@
         <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
         <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B2">
         <v>240</v>
@@ -3164,7 +3463,7 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>102</v>
@@ -3182,7 +3481,7 @@
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -3200,7 +3499,7 @@
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>419</v>
@@ -3218,7 +3517,7 @@
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>23.59</v>
@@ -3233,7 +3532,7 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -3248,7 +3547,7 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B8">
         <v>22.75</v>
@@ -3263,7 +3562,7 @@
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B9">
         <v>39.22</v>
@@ -3278,7 +3577,7 @@
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B10">
         <v>30.59</v>
@@ -3293,7 +3592,7 @@
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B11">
         <v>42</v>
@@ -3308,7 +3607,7 @@
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B12">
         <v>168</v>
@@ -3326,7 +3625,7 @@
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B13">
         <v>157</v>
@@ -3344,7 +3643,7 @@
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B14">
         <v>240</v>
@@ -3359,7 +3658,7 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -3388,30 +3687,265 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7CB05-9F2C-4DF0-95F3-270390B5B694}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2093F7-6BB6-4F6F-983A-629C0EAC18AD}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3550</v>
+      </c>
+      <c r="F2">
+        <f>E2*0.2</f>
+        <v>710</v>
+      </c>
+      <c r="H2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2450</v>
+      </c>
+      <c r="F4">
+        <f>E4*0.2</f>
+        <v>490</v>
+      </c>
+      <c r="H4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2175</v>
+      </c>
+      <c r="F5">
+        <f>E5*0.2</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2175</v>
+      </c>
+      <c r="F7">
+        <f>E7*0.2</f>
+        <v>435</v>
+      </c>
+      <c r="H7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>450</v>
+      </c>
+      <c r="F8">
+        <f>E8*0.2</f>
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2175</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F14" si="0">E10*0.2</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>450</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2175</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7CB05-9F2C-4DF0-95F3-270390B5B694}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
         <v>191</v>
@@ -3421,14 +3955,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>243</v>
+      <c r="A2" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3442,11 +3976,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3460,14 +3995,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3475,119 +4010,634 @@
       <c r="E5">
         <v>490</v>
       </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F28" si="0">E5*0.2</f>
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>450</v>
+        <v>650</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2450</v>
-      </c>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>315</v>
+        <v>2450</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>330</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>190</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>110</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2175</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>375</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2175</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>450</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>330</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1900</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>650</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>190</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>110</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2175</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="1">E30*0.2</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>450</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F33" si="2">E32*0.2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>330</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1900</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F36" si="3">E35*0.2</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>650</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>190</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="4">E38*0.2</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>110</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2175</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="5">E42*0.2</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s">
         <v>257</v>
       </c>
-      <c r="C9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>400</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F45" si="6">E44*0.2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>330</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>190</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:F49" si="7">E47*0.2</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E48">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10">
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E49">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>253</v>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f>SUM(F2:F49)</f>
+        <v>5330</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="A42:A49"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3885,7 +4935,7 @@
         <v>7000</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4007,10 +5057,10 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C3">
         <v>91</v>

--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Remodelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696B951E-59C5-42F7-B828-F728ABA5B9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="电器" sheetId="1" r:id="rId1"/>
@@ -27,8 +26,9 @@
     <sheet name="杂项" sheetId="14" r:id="rId12"/>
     <sheet name=" 净洁具" sheetId="17" r:id="rId13"/>
     <sheet name=" 洁具五金" sheetId="15" r:id="rId14"/>
+    <sheet name="面板和漏电开关" sheetId="19" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="335">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,13 +1222,141 @@
   </si>
   <si>
     <t>三楼厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开二三插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380V63A漏电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380V32A4P空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25A1P单极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V63A漏电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V25A2P空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水双盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315270.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315586.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16A插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100006258993.html#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315570.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011265498.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100005443888.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100022723084.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315568.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315584.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315214.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315236.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315268.html#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop357702730.taobao.com/search.htm?orderType=coefp_desc&amp;viewType=grid&amp;keyword=%BF%D5%C6%F8%BF%AA%B9%D8&amp;lowPrice=&amp;highPrice=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1352,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1380,6 +1508,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2224,11 +2358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2372,7 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="132.625" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,7 +2397,7 @@
       <c r="G1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2284,7 +2418,7 @@
         <v>6800</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="15" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2302,7 +2436,7 @@
         <v>12491</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2320,7 +2454,7 @@
         <v>1799</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2335,7 +2469,7 @@
         <v>1399</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2353,7 +2487,7 @@
         <v>3139</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2374,7 +2508,7 @@
         <v>1479</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2392,7 +2526,7 @@
         <v>3947</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="15" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2410,7 +2544,7 @@
         <v>1449</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2431,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2449,7 +2583,7 @@
         <v>634.85</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2470,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2488,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2506,7 +2640,7 @@
         <v>39</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2527,7 +2661,7 @@
         <v>3024.98</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2548,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2566,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2587,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2605,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2623,7 +2757,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2644,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2662,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2680,12 +2814,12 @@
         <v>39</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H31" s="1"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2704,12 +2838,12 @@
         <v>0</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H33" s="1"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2728,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2749,7 +2883,7 @@
         <v>3769</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2767,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2785,12 +2919,12 @@
         <v>0</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="1"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2809,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2827,7 +2961,7 @@
         <v>62</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2848,7 +2982,7 @@
         <v>694</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="15" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2876,34 +3010,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" location="detail" xr:uid="{8506D4EE-DB38-44D4-8565-780FD15BDBF9}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{FEF3E28F-3FF1-47E4-9DAF-7E4CF39CA06C}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{73020584-59EF-4A4D-A758-B47722DEED16}"/>
-    <hyperlink ref="H8" r:id="rId4" location="crumb-wrap" xr:uid="{5BFCF57B-6E31-450F-924A-FA4D845CDD55}"/>
-    <hyperlink ref="H9" r:id="rId5" location="detail" xr:uid="{3D18E052-66E3-479C-A81C-169C0C370C4A}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{42DB9B80-C638-45CC-ACA4-B0041D7B60D7}"/>
-    <hyperlink ref="H24" r:id="rId7" xr:uid="{4F4FE2A1-F90F-4A1D-8FC3-DD87933703FB}"/>
-    <hyperlink ref="H28" r:id="rId8" xr:uid="{F01D1BC6-6762-412F-B6CB-31B48F2F83F8}"/>
-    <hyperlink ref="H21" r:id="rId9" xr:uid="{939ABC7A-4B83-439F-B117-DA40EC0D506F}"/>
-    <hyperlink ref="H19" r:id="rId10" location="crumb-wrap" xr:uid="{50E8EAF6-A9F9-44D5-A10D-45EB3E9A645C}"/>
-    <hyperlink ref="H32" r:id="rId11" location="crumb-wrap" xr:uid="{498BDFAE-FB8B-40BE-8A0C-0713260DF695}"/>
-    <hyperlink ref="H37" r:id="rId12" location="crumb-wrap" xr:uid="{D3988598-4985-4777-8CED-9A785E154B9A}"/>
-    <hyperlink ref="H13" r:id="rId13" xr:uid="{FC734153-C60C-401E-9E85-2FDE095B2C9D}"/>
-    <hyperlink ref="H16" r:id="rId14" xr:uid="{9E7E049E-9CCE-4B1E-904C-B25C8FC6E943}"/>
-    <hyperlink ref="H22" r:id="rId15" xr:uid="{109E4862-F93F-47FA-A6C9-87BEB4B4024E}"/>
-    <hyperlink ref="H25" r:id="rId16" xr:uid="{FE87C1A9-E03D-466C-B2D7-EB65FE3F87A2}"/>
-    <hyperlink ref="H29" r:id="rId17" xr:uid="{F82A1993-C197-4246-BF30-F7CD3CF42939}"/>
-    <hyperlink ref="H38" r:id="rId18" xr:uid="{8EFEB03B-6C6F-4DE3-93C9-0C2D66544310}"/>
-    <hyperlink ref="H41" r:id="rId19" xr:uid="{971366BE-93D0-478D-A550-C779661F3DE5}"/>
-    <hyperlink ref="H42" r:id="rId20" xr:uid="{5C320B2C-2B42-4754-B2D1-E9627C866454}"/>
-    <hyperlink ref="H45" r:id="rId21" location="crumb-wrap" xr:uid="{8BDDEEDF-7597-49C5-BDFE-D680BDBF5FF1}"/>
-    <hyperlink ref="H6" r:id="rId22" location="detail" xr:uid="{3FEADCD1-7FB2-4856-8D12-7A85C4CC3822}"/>
-    <hyperlink ref="H2" r:id="rId23" location="detail" xr:uid="{76B26706-5402-43C9-874A-9CA89026389F}"/>
-    <hyperlink ref="H12" r:id="rId24" xr:uid="{08CFEAC5-800D-492E-8DC1-861FE0F4B067}"/>
-    <hyperlink ref="H15" r:id="rId25" xr:uid="{2037011D-C8AE-477D-9012-D59F63999851}"/>
-    <hyperlink ref="H34" r:id="rId26" xr:uid="{05BFC062-2737-4E5A-902E-ECAD533D63D8}"/>
-    <hyperlink ref="H30" r:id="rId27" xr:uid="{C1EF41D2-AD83-4CE1-B253-03A11DAEC728}"/>
-    <hyperlink ref="H36" r:id="rId28" xr:uid="{928D300E-56DE-443B-A20F-922D09E34E96}"/>
+    <hyperlink ref="H3" r:id="rId1" location="detail"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4" location="crumb-wrap"/>
+    <hyperlink ref="H9" r:id="rId5" location="detail"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H24" r:id="rId7"/>
+    <hyperlink ref="H28" r:id="rId8"/>
+    <hyperlink ref="H21" r:id="rId9"/>
+    <hyperlink ref="H19" r:id="rId10" location="crumb-wrap"/>
+    <hyperlink ref="H32" r:id="rId11" location="crumb-wrap"/>
+    <hyperlink ref="H37" r:id="rId12" location="crumb-wrap"/>
+    <hyperlink ref="H13" r:id="rId13"/>
+    <hyperlink ref="H16" r:id="rId14"/>
+    <hyperlink ref="H22" r:id="rId15"/>
+    <hyperlink ref="H25" r:id="rId16"/>
+    <hyperlink ref="H29" r:id="rId17"/>
+    <hyperlink ref="H38" r:id="rId18"/>
+    <hyperlink ref="H41" r:id="rId19"/>
+    <hyperlink ref="H42" r:id="rId20"/>
+    <hyperlink ref="H45" r:id="rId21" location="crumb-wrap"/>
+    <hyperlink ref="H6" r:id="rId22" location="detail"/>
+    <hyperlink ref="H2" r:id="rId23" location="detail"/>
+    <hyperlink ref="H12" r:id="rId24"/>
+    <hyperlink ref="H15" r:id="rId25"/>
+    <hyperlink ref="H34" r:id="rId26"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H36" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
@@ -2911,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA7D41A-DEEA-48C7-BE58-3BC57F03FEA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3051,11 +3185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB10B5-3BB8-4C76-B405-155B335BC6BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3406,10 +3540,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" location="crumb-wrap" xr:uid="{ACEEF263-B691-48EB-AE6A-C40C5434FA21}"/>
-    <hyperlink ref="G19" r:id="rId2" xr:uid="{21633C77-8C4A-4928-A6EA-3219019774EF}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{CC838A3A-3FBF-4CCF-90FB-EA2357826D52}"/>
-    <hyperlink ref="G20" r:id="rId4" xr:uid="{DA1C8954-CC84-4B98-95D5-67680A2952EF}"/>
+    <hyperlink ref="G4" r:id="rId1" location="crumb-wrap"/>
+    <hyperlink ref="G19" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G20" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3417,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A22AE47-2351-48E6-8751-649A31BBE403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3687,7 +3821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2093F7-6BB6-4F6F-983A-629C0EAC18AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3919,10 +4053,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7CB05-9F2C-4DF0-95F3-270390B5B694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -4644,24 +4778,390 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A24E19A-48EF-4D10-9DAA-3106E9BA28BA}">
-  <dimension ref="E2:H119"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="105.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>13.6</v>
+      </c>
+      <c r="D2">
+        <f>C2*B2</f>
+        <v>1156</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>12.24</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">C3*B3</f>
+        <v>85.68</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10.24</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>81.92</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>8.32</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8.32</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>11.52</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>12.16</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>60.8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>15.12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>60.48</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>17.04</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>51.12</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>24.64</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>24.64</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>27.28</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>81.84</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>293.13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>293.13</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>76.680000000000007</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>76.680000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>15.2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>144.66999999999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>144.66999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>36.340000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>20.88</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>41.76</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="4">
+        <f>SUM(D2:D19)</f>
+        <v>2928.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="crumb-wrap"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3" location="none"/>
+    <hyperlink ref="E5" r:id="rId4" location="crumb-wrap"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6" location="crumb-wrap"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E11" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12" location="none"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:H119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="20.75" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>78</v>
       </c>
       <c r="G2" s="3"/>
@@ -4671,7 +5171,7 @@
       <c r="E3" s="4">
         <v>1662.29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="3"/>
@@ -4698,7 +5198,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="15" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4706,18 +5206,18 @@
       <c r="E16" s="4">
         <v>198</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="1"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="30" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="1"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="33" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
+      <c r="F33" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4725,15 +5225,15 @@
       <c r="E34" s="4">
         <v>145</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="1"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="50" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
+      <c r="F50" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4741,12 +5241,12 @@
       <c r="E51" s="4">
         <v>2999</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F73" t="s">
+      <c r="F73" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4754,12 +5254,12 @@
       <c r="E74" s="4">
         <v>1999</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="80" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
+      <c r="F80" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4767,12 +5267,12 @@
       <c r="E81" s="4">
         <v>172.69</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F91" t="s">
+      <c r="F91" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4780,15 +5280,15 @@
       <c r="E92" s="4">
         <v>737.6</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="101" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F101" s="1"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="105" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F105" t="s">
+      <c r="F105" s="14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4796,7 +5296,7 @@
       <c r="E106" s="4">
         <v>4871.95</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="15" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4805,21 +5305,21 @@
         <f>SUM(E3:E106)</f>
         <v>12785.529999999999</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="14" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{F0F08E30-E55A-4C53-9A23-4481660887A9}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{A0BE13E6-2569-4DE4-8496-00BA19E6B92C}"/>
-    <hyperlink ref="F34" r:id="rId3" xr:uid="{FB43A9C7-9331-4866-B9DA-F74863EE6A39}"/>
-    <hyperlink ref="F51" r:id="rId4" location="crumb-wrap" xr:uid="{862ED588-B617-4115-85ED-462C0E9964F7}"/>
-    <hyperlink ref="F74" r:id="rId5" location="none" xr:uid="{9A903250-A9FF-44AB-97BC-565A59392490}"/>
-    <hyperlink ref="F81" r:id="rId6" xr:uid="{ADA7ABF1-8C11-47FD-98C0-D2AA79D4C141}"/>
-    <hyperlink ref="F92" r:id="rId7" xr:uid="{A4ED1676-D450-48EA-A935-B9831FC8299C}"/>
-    <hyperlink ref="F106" r:id="rId8" xr:uid="{D37B30B2-1262-4D06-81AF-28C386CA27C1}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F34" r:id="rId3"/>
+    <hyperlink ref="F51" r:id="rId4" location="crumb-wrap"/>
+    <hyperlink ref="F74" r:id="rId5" location="none"/>
+    <hyperlink ref="F81" r:id="rId6"/>
+    <hyperlink ref="F92" r:id="rId7"/>
+    <hyperlink ref="F106" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId9"/>
@@ -4827,16 +5327,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17C921A-3F49-49EB-80E4-E2212EA4DFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F23" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="110.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4849,8 +5349,8 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
+      <c r="D1" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4863,7 +5363,7 @@
       <c r="C2" s="4">
         <v>508</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4878,14 +5378,14 @@
         <f>B3*1000</f>
         <v>5260</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="detail" xr:uid="{CE182E04-53CD-4D5E-BA31-6109322A53A1}"/>
+    <hyperlink ref="D2" r:id="rId1" location="detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4893,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AAF8AC-CAA7-43E5-BA8F-AFDB8CBF270D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4941,7 +5441,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{34F25A74-BD27-4A36-9799-4CA5BCE9DE89}"/>
+    <hyperlink ref="D1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4949,7 +5449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC08422-23C5-4DD1-95BD-70E809BC65F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5005,11 +5505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBD4AFB-5004-47CD-91BE-C937A8BF6DB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5048,11 +5548,11 @@
         <v>140</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="F2">
         <f>SUM(C2:E2)</f>
-        <v>8108</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5199,7 +5699,7 @@
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="4">
         <f>SUM(F2:F9)</f>
-        <v>16441</v>
+        <v>16821</v>
       </c>
     </row>
   </sheetData>
@@ -5210,7 +5710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8430D2A0-3AE4-45CC-9B65-DA24C9B55D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5255,7 +5755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4877F31E-4B20-4D99-B57B-2050C09464E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5405,11 +5905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A63133-0DC2-4812-B292-805F541C3FA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="340">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,219 +1137,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5022-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1037-方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9招财进宝C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E8041-正方黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8010-白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三楼阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10w吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿欧大门顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三楼厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开二三插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位单控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380V63A漏电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380V32A4P空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V63A漏电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V25A2P空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水双盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315270.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315586.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16A插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100006258993.html#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315570.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011265498.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100005443888.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100022723084.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315568.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315584.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315214.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315236.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100011315268.html#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop357702730.taobao.com/search.htm?orderType=coefp_desc&amp;viewType=grid&amp;keyword=%BF%D5%C6%F8%BF%AA%B9%D8&amp;lowPrice=&amp;highPrice=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380V100A空气开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼公共厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>二楼套房厕所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K5022-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1037-方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9招财进宝C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二楼阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二楼走廊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E8041-正方黑色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二楼大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8010-白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三楼阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10w吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一楼楼梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壁灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一楼大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿欧大门顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞利浦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三楼厕所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一开二三插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1位双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1位单控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2位单控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2位双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3位单控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3位双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4位单控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4位双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>380V63A漏电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>380V32A4P空气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25A1P单极</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220V63A漏电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220V25A2P空气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防水双盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315270.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315586.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16A插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100006258993.html#none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315570.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011265498.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100005443888.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100022723084.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315568.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315584.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315214.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315236.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100011315268.html#none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://shop357702730.taobao.com/search.htm?orderType=coefp_desc&amp;viewType=grid&amp;keyword=%BF%D5%C6%F8%BF%AA%B9%D8&amp;lowPrice=&amp;highPrice=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
+    <t>380V32A漏电开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V25A1P单极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V32A2P双极</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,16 +1524,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2372,7 +2392,7 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2418,7 +2438,7 @@
         <v>6800</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2436,7 +2456,7 @@
         <v>12491</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2454,7 +2474,7 @@
         <v>1799</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2469,7 +2489,7 @@
         <v>1399</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2487,7 +2507,7 @@
         <v>3139</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2508,7 +2528,7 @@
         <v>1479</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2526,7 +2546,7 @@
         <v>3947</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2544,7 +2564,7 @@
         <v>1449</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2565,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2583,7 +2603,7 @@
         <v>634.85</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2604,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2622,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2640,7 +2660,7 @@
         <v>39</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2661,7 +2681,7 @@
         <v>3024.98</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2682,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2700,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2721,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2739,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2757,7 +2777,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2778,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2796,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2814,12 +2834,12 @@
         <v>39</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H31" s="15"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2838,12 +2858,12 @@
         <v>0</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H33" s="15"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2862,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2883,7 +2903,7 @@
         <v>3769</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2901,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2919,12 +2939,12 @@
         <v>0</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="15"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2943,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2961,7 +2981,7 @@
         <v>62</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2982,7 +3002,7 @@
         <v>694</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3202,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
         <v>191</v>
@@ -3219,13 +3239,13 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2">
         <v>311.10000000000002</v>
@@ -3240,7 +3260,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>209</v>
@@ -3295,10 +3315,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7">
         <v>813</v>
@@ -3317,10 +3337,10 @@
         <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9">
         <v>102</v>
@@ -3336,13 +3356,13 @@
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
         <v>297</v>
       </c>
-      <c r="B11" t="s">
-        <v>298</v>
-      </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D11">
         <v>144</v>
@@ -3357,13 +3377,13 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
         <v>290</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>291</v>
       </c>
       <c r="D13">
         <v>325</v>
@@ -3378,13 +3398,13 @@
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D15">
         <v>99</v>
@@ -3399,13 +3419,13 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
         <v>288</v>
-      </c>
-      <c r="B17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" t="s">
-        <v>289</v>
       </c>
       <c r="D17">
         <v>112.5</v>
@@ -3474,13 +3494,13 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D23">
         <v>99</v>
@@ -3495,13 +3515,13 @@
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" t="s">
         <v>293</v>
       </c>
-      <c r="B25" t="s">
-        <v>294</v>
-      </c>
       <c r="C25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D25">
         <v>99</v>
@@ -3515,7 +3535,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>214</v>
       </c>
       <c r="F27" s="4">
@@ -3523,7 +3543,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="F28" s="4">
         <v>100</v>
       </c>
@@ -3825,7 +3845,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4054,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4089,7 +4109,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>237</v>
       </c>
       <c r="B2" t="s">
@@ -4110,7 +4130,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>240</v>
       </c>
@@ -4129,7 +4149,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
@@ -4145,12 +4165,12 @@
         <v>490</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F28" si="0">E5*0.2</f>
+        <f t="shared" ref="F5:F24" si="0">E5*0.2</f>
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>245</v>
       </c>
@@ -4169,418 +4189,417 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2450</v>
+        <v>330</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>330</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="E10">
+        <v>190</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>110</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>190</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
       <c r="E12">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="E14">
+        <v>2175</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2175</v>
+        <v>375</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>375</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>75</v>
+      <c r="E17">
+        <v>330</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>2175</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="E19">
+        <v>1900</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>330</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="E22">
+        <v>190</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1900</v>
+        <v>110</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" ref="F26" si="1">E26*0.2</f>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>110</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
+      <c r="A27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" ref="F28:F29" si="2">E28*0.2</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>650</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>2175</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30" si="1">E30*0.2</f>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="E31">
+        <v>190</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F33" si="3">E31*0.2</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:F33" si="2">E32*0.2</f>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14" t="s">
+        <v>336</v>
+      </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F36" si="3">E35*0.2</f>
-        <v>380</v>
+        <f t="shared" ref="F35:F36" si="4">E35*0.2</f>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>251</v>
       </c>
@@ -4594,12 +4613,12 @@
         <v>190</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F40" si="4">E38*0.2</f>
+        <f t="shared" ref="F38:F40" si="5">E38*0.2</f>
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="B39" t="s">
         <v>248</v>
       </c>
@@ -4613,12 +4632,12 @@
         <v>110</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="B40" t="s">
         <v>249</v>
       </c>
@@ -4632,145 +4651,23 @@
         <v>300</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B42" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>2175</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ref="F42" si="5">E42*0.2</f>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>400</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44:F45" si="6">E44*0.2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C45" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>330</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>190</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ref="F47:F49" si="7">E47*0.2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" t="s">
-        <v>248</v>
-      </c>
-      <c r="C48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>110</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>300</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F50">
-        <f>SUM(F2:F49)</f>
-        <v>5330</v>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f>SUM(F2:F40)</f>
+        <v>3355</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A5:A15"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A35:A40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4780,15 +4677,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.625" style="14"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4804,13 +4702,13 @@
       <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -4822,13 +4720,13 @@
         <f>C2*B2</f>
         <v>1156</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>320</v>
+      <c r="E2" s="13" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -4837,16 +4735,16 @@
         <v>12.24</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D19" si="0">C3*B3</f>
+        <f t="shared" ref="D3:D22" si="0">C3*B3</f>
         <v>85.68</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>323</v>
+      <c r="E3" s="13" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -4858,13 +4756,13 @@
         <f t="shared" si="0"/>
         <v>81.92</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>321</v>
+      <c r="E4" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4876,13 +4774,13 @@
         <f t="shared" si="0"/>
         <v>8.32</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>324</v>
+      <c r="E5" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4894,13 +4792,13 @@
         <f t="shared" si="0"/>
         <v>57.599999999999994</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>325</v>
+      <c r="E6" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4912,13 +4810,13 @@
         <f t="shared" si="0"/>
         <v>60.8</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>327</v>
+      <c r="E7" s="13" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -4930,13 +4828,13 @@
         <f t="shared" si="0"/>
         <v>60.48</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>328</v>
+      <c r="E8" s="13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4948,13 +4846,13 @@
         <f t="shared" si="0"/>
         <v>51.12</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>329</v>
+      <c r="E9" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4966,13 +4864,13 @@
         <f t="shared" si="0"/>
         <v>24.64</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>330</v>
+      <c r="E10" s="13" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -4984,13 +4882,13 @@
         <f t="shared" si="0"/>
         <v>81.84</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>331</v>
+      <c r="E11" s="13" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -5002,13 +4900,13 @@
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>326</v>
+      <c r="E12" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5023,104 +4921,150 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>293.13</v>
+        <v>367.96</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>293.13</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>333</v>
+        <v>367.96</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>76.680000000000007</v>
+        <v>293.13</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>76.680000000000007</v>
+        <v>586.26</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>15.2</v>
+        <v>191.22</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>121.6</v>
-      </c>
+        <v>191.22</v>
+      </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>144.66999999999999</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>144.66999999999999</v>
+        <v>76.680000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>36.340000000000003</v>
+        <v>36.33</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>36.340000000000003</v>
+        <v>217.98</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>15.2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>144.66999999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>144.66999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>36.340000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>20.88</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>41.76</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="4">
-        <f>SUM(D2:D19)</f>
-        <v>2928.58</v>
+      <c r="E22" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="4">
+        <f>SUM(D2:D22)</f>
+        <v>3998.87</v>
       </c>
     </row>
   </sheetData>
@@ -5137,10 +5081,11 @@
     <hyperlink ref="E9" r:id="rId9"/>
     <hyperlink ref="E10" r:id="rId10"/>
     <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E19" r:id="rId12" location="none"/>
-    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E22" r:id="rId12" location="none"/>
+    <hyperlink ref="E15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -5154,14 +5099,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="20.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G2" s="3"/>
@@ -5171,7 +5116,7 @@
       <c r="E3" s="4">
         <v>1662.29</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="3"/>
@@ -5198,7 +5143,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="15" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5206,18 +5151,18 @@
       <c r="E16" s="4">
         <v>198</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="15"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="30" spans="6:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="15"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="33" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5225,15 +5170,15 @@
       <c r="E34" s="4">
         <v>145</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="15"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="50" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5241,12 +5186,12 @@
       <c r="E51" s="4">
         <v>2999</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="12" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5254,12 +5199,12 @@
       <c r="E74" s="4">
         <v>1999</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="80" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5267,12 +5212,12 @@
       <c r="E81" s="4">
         <v>172.69</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="12" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5280,15 +5225,15 @@
       <c r="E92" s="4">
         <v>737.6</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="101" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F101" s="15"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="105" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="12" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5296,7 +5241,7 @@
       <c r="E106" s="4">
         <v>4871.95</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5305,7 +5250,7 @@
         <f>SUM(E3:E106)</f>
         <v>12785.529999999999</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5336,7 +5281,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5350,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5363,7 +5308,7 @@
       <c r="C2" s="4">
         <v>508</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5787,7 +5732,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B3">
@@ -5795,49 +5740,49 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4">
         <v>2.125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5">
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6">
         <v>2.3250000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7">
         <v>2.5049999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8">
         <v>2.99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9">
         <v>2.82</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10">
         <v>2.82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11">
         <v>3.0049999999999999</v>
       </c>
@@ -5849,13 +5794,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12">
         <v>2.7850000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B14">
@@ -5863,7 +5808,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15">
         <v>4.6399999999999997</v>
       </c>
@@ -5908,7 +5853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -5954,7 +5899,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -5977,7 +5922,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
         <v>155</v>
       </c>
@@ -5998,7 +5943,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
         <v>156</v>
       </c>
@@ -6019,7 +5964,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
         <v>157</v>
       </c>
@@ -6040,7 +5985,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
         <v>158</v>
       </c>
@@ -6063,7 +6008,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
         <v>159</v>
       </c>
@@ -6084,7 +6029,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="7" t="s">
         <v>160</v>
       </c>
@@ -6105,7 +6050,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="7" t="s">
         <v>161</v>
       </c>
@@ -6141,7 +6086,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -6166,7 +6111,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="7" t="s">
         <v>164</v>
       </c>
@@ -6189,7 +6134,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="7" t="s">
         <v>165</v>
       </c>
@@ -6212,7 +6157,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="7" t="s">
         <v>166</v>
       </c>
@@ -6233,7 +6178,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
         <v>167</v>
       </c>
@@ -6254,7 +6199,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="7" t="s">
         <v>168</v>
       </c>
@@ -6275,7 +6220,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="7" t="s">
         <v>169</v>
       </c>
@@ -6296,7 +6241,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="7" t="s">
         <v>171</v>
       </c>
@@ -6317,7 +6262,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="7" t="s">
         <v>172</v>
       </c>
@@ -6353,7 +6298,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -6378,7 +6323,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="7" t="s">
         <v>174</v>
       </c>
@@ -6414,7 +6359,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -6437,7 +6382,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="7" t="s">
         <v>175</v>
       </c>
@@ -6457,7 +6402,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="8" t="s">
         <v>176</v>
       </c>

--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Remodelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修\Remodelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F460C347-2576-4980-B19A-36EC69500E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电器" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <sheet name=" 洁具五金" sheetId="15" r:id="rId14"/>
     <sheet name="面板和漏电开关" sheetId="19" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="354">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,9 +591,6 @@
   </si>
   <si>
     <t>三楼</t>
-  </si>
-  <si>
-    <t>三楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -692,19 +690,7 @@
     <t>主人房厕所</t>
   </si>
   <si>
-    <t>二楼厕所</t>
-  </si>
-  <si>
     <t>二楼阳台</t>
-  </si>
-  <si>
-    <t>二楼走廊(不规则)</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>二楼大厅</t>
   </si>
   <si>
     <t>杂物间</t>
@@ -1001,10 +987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钩子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,10 +1067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马桶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1370,13 +1348,97 @@
   </si>
   <si>
     <t>220V32A2P双极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼厕所（包括厕所门顶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼大厅（包括走廊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三楼（不规则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀+不锈钢水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调不锈钢架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷壶+手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.79562e8dD9bpgG&amp;id=653807463428&amp;_u=n2i42u3ce2a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康宝热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼房间新盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B155</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2378,11 +2440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2540,14 +2602,14 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E9">
         <v>3947</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3020,44 +3082,71 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>349</v>
+      </c>
+      <c r="E50">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>133</v>
       </c>
-      <c r="F49">
-        <f>SUM(E46,F48)</f>
-        <v>40804.83</v>
+      <c r="F52">
+        <f>SUM(E46,F48,E49:E51)</f>
+        <v>41629.83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" location="detail"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4" location="crumb-wrap"/>
-    <hyperlink ref="H9" r:id="rId5" location="detail"/>
-    <hyperlink ref="H10" r:id="rId6"/>
-    <hyperlink ref="H24" r:id="rId7"/>
-    <hyperlink ref="H28" r:id="rId8"/>
-    <hyperlink ref="H21" r:id="rId9"/>
-    <hyperlink ref="H19" r:id="rId10" location="crumb-wrap"/>
-    <hyperlink ref="H32" r:id="rId11" location="crumb-wrap"/>
-    <hyperlink ref="H37" r:id="rId12" location="crumb-wrap"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="H16" r:id="rId14"/>
-    <hyperlink ref="H22" r:id="rId15"/>
-    <hyperlink ref="H25" r:id="rId16"/>
-    <hyperlink ref="H29" r:id="rId17"/>
-    <hyperlink ref="H38" r:id="rId18"/>
-    <hyperlink ref="H41" r:id="rId19"/>
-    <hyperlink ref="H42" r:id="rId20"/>
-    <hyperlink ref="H45" r:id="rId21" location="crumb-wrap"/>
-    <hyperlink ref="H6" r:id="rId22" location="detail"/>
-    <hyperlink ref="H2" r:id="rId23" location="detail"/>
-    <hyperlink ref="H12" r:id="rId24"/>
-    <hyperlink ref="H15" r:id="rId25"/>
-    <hyperlink ref="H34" r:id="rId26"/>
-    <hyperlink ref="H30" r:id="rId27"/>
-    <hyperlink ref="H36" r:id="rId28"/>
+    <hyperlink ref="H3" r:id="rId1" location="detail" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H8" r:id="rId4" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H9" r:id="rId5" location="detail" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H19" r:id="rId10" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H32" r:id="rId11" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H37" r:id="rId12" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H42" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H45" r:id="rId21" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H6" r:id="rId22" location="detail" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H2" r:id="rId23" location="detail" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
@@ -3065,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3076,21 +3165,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B2" s="7">
         <v>21.6</v>
@@ -3104,7 +3193,7 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B3" s="7">
         <v>13.3</v>
@@ -3118,7 +3207,7 @@
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B4" s="7">
         <v>3.5</v>
@@ -3132,7 +3221,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B5" s="7">
         <v>7.94</v>
@@ -3146,7 +3235,7 @@
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B6" s="7">
         <v>2.96</v>
@@ -3160,7 +3249,7 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B7" s="7">
         <v>4.68</v>
@@ -3174,7 +3263,7 @@
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B8" s="7">
         <v>62</v>
@@ -3188,7 +3277,7 @@
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3205,11 +3294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3222,16 +3311,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -3239,13 +3328,13 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D2">
         <v>311.10000000000002</v>
@@ -3260,10 +3349,10 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4">
         <v>27</v>
@@ -3276,12 +3365,12 @@
         <v>486</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -3294,12 +3383,12 @@
         <v>245</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -3315,10 +3404,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D7">
         <v>813</v>
@@ -3334,13 +3423,13 @@
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D9">
         <v>102</v>
@@ -3356,13 +3445,13 @@
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D11">
         <v>144</v>
@@ -3377,13 +3466,13 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D13">
         <v>325</v>
@@ -3398,13 +3487,13 @@
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
         <v>286</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>293</v>
-      </c>
-      <c r="C15" t="s">
-        <v>300</v>
       </c>
       <c r="D15">
         <v>99</v>
@@ -3419,13 +3508,13 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D17">
         <v>112.5</v>
@@ -3443,7 +3532,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -3456,12 +3545,12 @@
         <v>95</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D20">
         <v>49</v>
@@ -3474,12 +3563,12 @@
         <v>245</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D21">
         <v>28</v>
@@ -3494,13 +3583,13 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" t="s">
         <v>293</v>
-      </c>
-      <c r="C23" t="s">
-        <v>300</v>
       </c>
       <c r="D23">
         <v>99</v>
@@ -3515,13 +3604,13 @@
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" t="s">
         <v>293</v>
-      </c>
-      <c r="C25" t="s">
-        <v>300</v>
       </c>
       <c r="D25">
         <v>99</v>
@@ -3536,7 +3625,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F27" s="4">
         <v>100</v>
@@ -3560,10 +3649,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" location="crumb-wrap"/>
-    <hyperlink ref="G19" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G20" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId1" location="crumb-wrap" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="G20" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3571,11 +3660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3585,24 +3674,24 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B2">
         <v>240</v>
@@ -3617,7 +3706,7 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B3">
         <v>102</v>
@@ -3629,13 +3718,13 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">B3*C3-D3</f>
+        <f t="shared" ref="E3:E21" si="0">B3*C3-D3</f>
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -3653,7 +3742,7 @@
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>419</v>
@@ -3671,7 +3760,7 @@
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>23.59</v>
@@ -3686,7 +3775,7 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -3701,7 +3790,7 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B8">
         <v>22.75</v>
@@ -3716,7 +3805,7 @@
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B9">
         <v>39.22</v>
@@ -3731,7 +3820,7 @@
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B10">
         <v>30.59</v>
@@ -3746,7 +3835,7 @@
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B11">
         <v>42</v>
@@ -3761,7 +3850,7 @@
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B12">
         <v>168</v>
@@ -3779,7 +3868,7 @@
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B13">
         <v>157</v>
@@ -3797,7 +3886,7 @@
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B14">
         <v>240</v>
@@ -3812,7 +3901,7 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -3826,12 +3915,102 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM(E2:E15)</f>
-        <v>2102.42</v>
+      <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16">
+        <v>355.46</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>355.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17">
+        <v>46.9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18">
+        <v>64.2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19">
+        <v>337.29</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>337.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20">
+        <v>88</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SUM(E2:E21)</f>
+        <v>3002.27</v>
       </c>
     </row>
   </sheetData>
@@ -3841,47 +4020,53 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3894,39 +4079,44 @@
         <v>710</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2450</v>
+        <v>375</v>
       </c>
       <c r="F4">
         <f>E4*0.2</f>
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3938,16 +4128,20 @@
         <f>E5*0.2</f>
         <v>435</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3960,39 +4154,44 @@
         <v>435</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="F8">
         <f>E8*0.2</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4004,13 +4203,14 @@
         <f t="shared" ref="F10:F14" si="0">E10*0.2</f>
         <v>435</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4022,16 +4222,20 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4043,41 +4247,47 @@
         <f t="shared" si="0"/>
         <v>435</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>400</v>
-      </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>611.1</v>
       </c>
       <c r="H14" t="s">
-        <v>276</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1" xr:uid="{B3590EA4-D969-43A3-93E8-FDC4D137B95A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4090,33 +4300,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4132,10 +4342,10 @@
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4153,10 +4363,10 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4172,10 +4382,10 @@
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4194,10 +4404,10 @@
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4216,10 +4426,10 @@
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4235,10 +4445,10 @@
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -4254,10 +4464,10 @@
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4276,10 +4486,10 @@
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4295,10 +4505,10 @@
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4313,13 +4523,13 @@
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4338,10 +4548,10 @@
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4357,10 +4567,10 @@
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4379,10 +4589,10 @@
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4398,10 +4608,10 @@
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4417,10 +4627,10 @@
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4435,13 +4645,13 @@
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4460,10 +4670,10 @@
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4479,10 +4689,10 @@
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4501,10 +4711,10 @@
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4520,10 +4730,10 @@
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4539,10 +4749,10 @@
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4557,13 +4767,13 @@
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4579,10 +4789,10 @@
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -4601,10 +4811,10 @@
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -4620,10 +4830,10 @@
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4639,10 +4849,10 @@
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4676,11 +4886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4694,21 +4904,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -4721,12 +4931,12 @@
         <v>1156</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -4739,12 +4949,12 @@
         <v>85.68</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -4757,12 +4967,12 @@
         <v>81.92</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4775,12 +4985,12 @@
         <v>8.32</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4793,12 +5003,12 @@
         <v>57.599999999999994</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4811,12 +5021,12 @@
         <v>60.8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -4829,12 +5039,12 @@
         <v>60.48</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4847,12 +5057,12 @@
         <v>51.12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4865,12 +5075,12 @@
         <v>24.64</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -4883,12 +5093,12 @@
         <v>81.84</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -4901,12 +5111,12 @@
         <v>546</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -4921,7 +5131,7 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4936,7 +5146,7 @@
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4949,12 +5159,12 @@
         <v>586.26</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4970,7 +5180,7 @@
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4985,7 +5195,7 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -5000,7 +5210,7 @@
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -5015,7 +5225,7 @@
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5030,7 +5240,7 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5045,7 +5255,7 @@
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5058,7 +5268,7 @@
         <v>41.76</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5070,19 +5280,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="crumb-wrap"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3" location="none"/>
-    <hyperlink ref="E5" r:id="rId4" location="crumb-wrap"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E12" r:id="rId6" location="crumb-wrap"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E22" r:id="rId12" location="none"/>
-    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E2" r:id="rId1" location="crumb-wrap" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" location="none" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" location="crumb-wrap" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink ref="E12" r:id="rId6" location="crumb-wrap" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
+    <hyperlink ref="E22" r:id="rId12" location="none" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -5090,11 +5300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E2:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5257,14 +5467,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F16" r:id="rId2"/>
-    <hyperlink ref="F34" r:id="rId3"/>
-    <hyperlink ref="F51" r:id="rId4" location="crumb-wrap"/>
-    <hyperlink ref="F74" r:id="rId5" location="none"/>
-    <hyperlink ref="F81" r:id="rId6"/>
-    <hyperlink ref="F92" r:id="rId7"/>
-    <hyperlink ref="F106" r:id="rId8"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F51" r:id="rId4" location="crumb-wrap" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F74" r:id="rId5" location="none" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F81" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F92" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F106" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId9"/>
@@ -5272,7 +5482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5295,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5330,7 +5540,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="detail"/>
+    <hyperlink ref="D2" r:id="rId1" location="detail" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5338,7 +5548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,13 +5590,13 @@
         <v>7000</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5394,7 +5604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5405,24 +5615,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>15.5</v>
@@ -5450,11 +5660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5473,10 +5683,10 @@
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5502,10 +5712,10 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C3">
         <v>91</v>
@@ -5642,9 +5852,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="4">
-        <f>SUM(F2:F9)</f>
-        <v>16821</v>
+      <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="4">
+        <f>SUM(F2:F10)</f>
+        <v>17548</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5700,7 +5918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5714,18 +5932,18 @@
         <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
         <v>145</v>
-      </c>
-      <c r="E1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>285</v>
@@ -5733,7 +5951,7 @@
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>2.145</v>
@@ -5787,7 +6005,7 @@
         <v>3.0049999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <v>270</v>
@@ -5801,7 +6019,7 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>2.7850000000000001</v>
@@ -5815,7 +6033,7 @@
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16">
         <f>SUM(B3:B15)</f>
@@ -5824,7 +6042,7 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="4">
         <v>9167</v>
@@ -5832,7 +6050,7 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E21">
         <v>285</v>
@@ -5850,11 +6068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5865,10 +6083,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -5900,159 +6118,159 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="7">
         <v>5.0999999999999996</v>
       </c>
       <c r="D5" s="7">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F10" si="0">IF(E5&lt;0.1,C5*D5,E5*(C5+D5)+C5*D5)</f>
-        <v>8.4149999999999991</v>
+        <f>IF(E5&lt;0.1,C5*D5,2*E5*(C5+D5)+C5*D5)</f>
+        <v>9.18</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G27" si="1">28*F5</f>
-        <v>235.61999999999998</v>
+        <f>$A$2*F5</f>
+        <v>257.03999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="7">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>9.5787999999999993</v>
+        <f t="shared" ref="F6:F27" si="0">IF(E6&lt;0.1,C6*D6,2*E6*(C6+D6)+C6*D6)</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>268.20639999999997</v>
+        <f t="shared" ref="G6:G27" si="1">$A$2*F6</f>
+        <v>260.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="7">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="D7" s="7">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>9.7968000000000011</v>
+        <v>9.6100000000000012</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>274.31040000000002</v>
+        <v>269.08000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="7">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="D8" s="7">
-        <v>4.6500000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E8" s="7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>42.727500000000006</v>
+        <v>69.319999999999993</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
-        <v>1196.3700000000001</v>
+        <v>1940.9599999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="7">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="D9" s="7">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>30.72</v>
+        <v>41.61</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>860.16</v>
+        <v>1165.08</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="7">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="D10" s="7">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>11.520000000000001</v>
+        <v>13.77</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
-        <v>322.56000000000006</v>
+        <v>385.56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="7">
         <v>1.33</v>
@@ -6062,7 +6280,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <f>IF(E11&lt;0.1,C11*D11,E11*(C11+D11)+C11*D11)</f>
+        <f t="shared" si="0"/>
         <v>4.2560000000000002</v>
       </c>
       <c r="G11" s="7">
@@ -6077,7 +6295,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F18" si="2">IF(E12&lt;0.1,C12*D12,E12*(C12+D12)+C12*D12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="7">
@@ -6087,407 +6305,399 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="C13" s="7">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="D13" s="7">
-        <v>4.6500000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E13" s="7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="2"/>
-        <v>42.727500000000006</v>
+        <f t="shared" si="0"/>
+        <v>69.319999999999993</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>1196.3700000000001</v>
+        <v>1940.9599999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D14" s="7">
         <v>4.5999999999999996</v>
       </c>
       <c r="E14" s="7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="2"/>
-        <v>43.62</v>
+        <f t="shared" si="0"/>
+        <v>69.319999999999993</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="1"/>
-        <v>1221.3599999999999</v>
+        <v>1940.9599999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="7">
-        <v>4.6500000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="D15" s="7">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E15" s="7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="2"/>
-        <v>48.09</v>
+        <f t="shared" si="0"/>
+        <v>63.109999999999992</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="1"/>
-        <v>1346.52</v>
+        <v>1767.0799999999997</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="7">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="D16" s="7">
-        <v>2.4900000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5856000000000003</v>
+        <f t="shared" si="0"/>
+        <v>3.2199999999999998</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="1"/>
-        <v>100.39680000000001</v>
+        <v>90.16</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="C17" s="7">
-        <v>2.62</v>
+        <v>4.7</v>
       </c>
       <c r="D17" s="7">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
-        <f t="shared" si="2"/>
-        <v>4.5587999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.99</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
-        <v>127.6464</v>
+        <v>223.72</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="7">
         <v>5.0999999999999996</v>
       </c>
       <c r="D18" s="7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7">
-        <f t="shared" si="2"/>
-        <v>9.69</v>
+        <f t="shared" si="0"/>
+        <v>9.18</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
-        <v>271.32</v>
+        <v>257.03999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="7" t="s">
-        <v>169</v>
+        <v>334</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>170</v>
+        <v>335</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>170</v>
+        <v>335</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
-        <f>4.17*1.48+6.65*1.73</f>
-        <v>17.676099999999998</v>
+        <v>22.92</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>494.93079999999998</v>
+        <v>641.76</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C20" s="7">
-        <v>3.09</v>
+        <v>2.4</v>
       </c>
       <c r="D20" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3.5</v>
+      </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20:F26" si="3">IF(E20&lt;0.1,C20*D20,E20*(C20+D20)+C20*D20)</f>
-        <v>10.505999999999998</v>
+        <f t="shared" si="0"/>
+        <v>49.7</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="1"/>
-        <v>294.16799999999995</v>
+        <v>1391.6000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3.5</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
-        <f t="shared" si="3"/>
-        <v>8.4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="1"/>
-        <v>235.20000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3.4</v>
+      </c>
       <c r="F22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>104.89</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2936.92</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>177</v>
-      </c>
+      <c r="A23" s="14"/>
       <c r="B23" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C23" s="7">
-        <v>5.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="E23" s="7">
-        <v>3</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7">
-        <f t="shared" si="3"/>
-        <v>63.09</v>
+        <f t="shared" si="0"/>
+        <v>13.6</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="1"/>
-        <v>1766.52</v>
+        <v>380.8</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1.5</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>392.28</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="A26" s="14"/>
       <c r="B26" s="7" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C26" s="7">
-        <v>3.08</v>
+        <v>8.5</v>
       </c>
       <c r="D26" s="7">
-        <v>3.38</v>
+        <v>1.2</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7">
-        <f t="shared" si="3"/>
-        <v>10.410399999999999</v>
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="1"/>
-        <v>291.49119999999999</v>
+        <v>285.59999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>170</v>
+      <c r="B27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1.2</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7">
-        <v>8.7479999999999993</v>
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="1"/>
-        <v>244.94399999999999</v>
+        <v>285.59999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="10">
+        <f>SUM(F5:F27)</f>
+        <v>604.70600000000013</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(G5:G27)</f>
+        <v>16931.767999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="10">
-        <f>SUM(F5:F27)</f>
-        <v>400.11649999999992</v>
-      </c>
-      <c r="G29" s="9">
-        <f>SUM(G5:G27)</f>
-        <v>11203.262000000001</v>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31">
+        <v>240</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>499</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>378</v>
+      </c>
+      <c r="H31" s="2">
+        <f>C31*D31+F31*G31</f>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>182</v>
       </c>
-      <c r="D31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32">
-        <v>240</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>499</v>
-      </c>
-      <c r="E32">
-        <v>120</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>378</v>
-      </c>
-      <c r="H32" s="2">
-        <f>C32*D32+F32*G32</f>
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="2">
-        <f>SUM(G29,H32)</f>
-        <v>13713.262000000001</v>
+      <c r="G33" s="2">
+        <f>SUM(G28,H31)</f>
+        <v>19441.767999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修\Remodelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F460C347-2576-4980-B19A-36EC69500E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F29D07F-8826-4063-A027-D5F4A4AB8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="10845" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电器" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="355">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,10 +464,6 @@
   </si>
   <si>
     <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马贝112</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1187,10 +1183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亿欧大门顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>飞利浦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,6 +1424,18 @@
   </si>
   <si>
     <t>B155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门槛石（材料=装工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马贝141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼大门顶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2602,14 +2606,14 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>3947</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3082,10 +3086,10 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E49">
         <v>357</v>
@@ -3093,7 +3097,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E50">
         <v>108</v>
@@ -3101,7 +3105,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E51">
         <v>360</v>
@@ -3109,7 +3113,7 @@
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52">
         <f>SUM(E46,F48,E49:E51)</f>
@@ -3165,21 +3169,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7">
         <v>21.6</v>
@@ -3193,7 +3197,7 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="7">
         <v>13.3</v>
@@ -3207,7 +3211,7 @@
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="7">
         <v>3.5</v>
@@ -3221,7 +3225,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="7">
         <v>7.94</v>
@@ -3235,7 +3239,7 @@
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="7">
         <v>2.96</v>
@@ -3249,7 +3253,7 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="7">
         <v>4.68</v>
@@ -3263,7 +3267,7 @@
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="7">
         <v>62</v>
@@ -3277,7 +3281,7 @@
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3298,7 +3302,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3311,16 +3315,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -3328,13 +3332,13 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2">
         <v>311.10000000000002</v>
@@ -3349,10 +3353,10 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4">
         <v>27</v>
@@ -3365,12 +3369,12 @@
         <v>486</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -3383,12 +3387,12 @@
         <v>245</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -3404,10 +3408,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7">
         <v>813</v>
@@ -3423,13 +3427,13 @@
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9">
         <v>102</v>
@@ -3445,13 +3449,13 @@
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
         <v>289</v>
       </c>
-      <c r="B11" t="s">
-        <v>290</v>
-      </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11">
         <v>144</v>
@@ -3466,13 +3470,13 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" t="s">
         <v>282</v>
-      </c>
-      <c r="B13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" t="s">
-        <v>283</v>
       </c>
       <c r="D13">
         <v>325</v>
@@ -3487,13 +3491,13 @@
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D15">
         <v>99</v>
@@ -3508,13 +3512,13 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" t="s">
         <v>280</v>
-      </c>
-      <c r="B17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" t="s">
-        <v>281</v>
       </c>
       <c r="D17">
         <v>112.5</v>
@@ -3532,7 +3536,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -3545,12 +3549,12 @@
         <v>95</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20">
         <v>49</v>
@@ -3563,12 +3567,12 @@
         <v>245</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21">
         <v>28</v>
@@ -3583,13 +3587,13 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D23">
         <v>99</v>
@@ -3604,13 +3608,13 @@
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" t="s">
         <v>285</v>
       </c>
-      <c r="B25" t="s">
-        <v>286</v>
-      </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D25">
         <v>99</v>
@@ -3625,7 +3629,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F27" s="4">
         <v>100</v>
@@ -3664,7 +3668,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3674,24 +3678,24 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2">
         <v>240</v>
@@ -3706,7 +3710,7 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3">
         <v>102</v>
@@ -3724,7 +3728,7 @@
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -3742,7 +3746,7 @@
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5">
         <v>419</v>
@@ -3760,7 +3764,7 @@
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6">
         <v>23.59</v>
@@ -3775,7 +3779,7 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -3790,7 +3794,7 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8">
         <v>22.75</v>
@@ -3805,7 +3809,7 @@
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9">
         <v>39.22</v>
@@ -3820,7 +3824,7 @@
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10">
         <v>30.59</v>
@@ -3835,7 +3839,7 @@
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11">
         <v>42</v>
@@ -3850,7 +3854,7 @@
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>168</v>
@@ -3868,7 +3872,7 @@
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13">
         <v>157</v>
@@ -3886,7 +3890,7 @@
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14">
         <v>240</v>
@@ -3901,7 +3905,7 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -3916,7 +3920,7 @@
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B16">
         <v>355.46</v>
@@ -3931,7 +3935,7 @@
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17">
         <v>46.9</v>
@@ -3946,7 +3950,7 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B18">
         <v>64.2</v>
@@ -3961,7 +3965,7 @@
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B19">
         <v>337.29</v>
@@ -3976,7 +3980,7 @@
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B20">
         <v>88</v>
@@ -3991,7 +3995,7 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -4006,7 +4010,7 @@
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
@@ -4034,39 +4038,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4079,7 +4083,7 @@
         <v>710</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I2" s="12"/>
     </row>
@@ -4091,10 +4095,10 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4107,16 +4111,16 @@
         <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
         <v>262</v>
-      </c>
-      <c r="C5" t="s">
-        <v>263</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4135,13 +4139,13 @@
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
         <v>247</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>248</v>
-      </c>
-      <c r="C7" t="s">
-        <v>249</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4154,16 +4158,16 @@
         <v>435</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4176,7 +4180,7 @@
         <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I8" s="12"/>
     </row>
@@ -4185,13 +4189,13 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
         <v>248</v>
-      </c>
-      <c r="C10" t="s">
-        <v>249</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4200,17 +4204,17 @@
         <v>2175</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F14" si="0">E10*0.2</f>
+        <f t="shared" ref="F10:F13" si="0">E10*0.2</f>
         <v>435</v>
       </c>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4229,13 +4233,13 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
         <v>248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>249</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4251,10 +4255,10 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4263,10 +4267,10 @@
         <v>611.1</v>
       </c>
       <c r="H14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4300,33 +4304,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4342,10 +4346,10 @@
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4363,10 +4367,10 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" t="s">
-        <v>239</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4382,10 +4386,10 @@
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4404,10 +4408,10 @@
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4426,10 +4430,10 @@
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
         <v>245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>246</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4445,10 +4449,10 @@
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -4464,10 +4468,10 @@
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
         <v>243</v>
-      </c>
-      <c r="C12" t="s">
-        <v>244</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4486,10 +4490,10 @@
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4505,10 +4509,10 @@
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4523,13 +4527,13 @@
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" t="s">
         <v>252</v>
-      </c>
-      <c r="C17" t="s">
-        <v>253</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4548,10 +4552,10 @@
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4567,10 +4571,10 @@
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4589,10 +4593,10 @@
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4608,10 +4612,10 @@
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4627,10 +4631,10 @@
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4645,13 +4649,13 @@
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" t="s">
         <v>252</v>
-      </c>
-      <c r="C26" t="s">
-        <v>253</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4670,10 +4674,10 @@
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4689,10 +4693,10 @@
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4711,10 +4715,10 @@
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" t="s">
         <v>245</v>
-      </c>
-      <c r="C31" t="s">
-        <v>246</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4730,10 +4734,10 @@
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4749,10 +4753,10 @@
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" t="s">
         <v>243</v>
-      </c>
-      <c r="C33" t="s">
-        <v>244</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4767,13 +4771,13 @@
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4789,10 +4793,10 @@
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" t="s">
         <v>252</v>
-      </c>
-      <c r="C36" t="s">
-        <v>253</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -4811,10 +4815,10 @@
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
         <v>245</v>
-      </c>
-      <c r="C38" t="s">
-        <v>246</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -4830,10 +4834,10 @@
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4849,10 +4853,10 @@
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" t="s">
         <v>243</v>
-      </c>
-      <c r="C40" t="s">
-        <v>244</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4904,21 +4908,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -4931,12 +4935,12 @@
         <v>1156</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -4949,12 +4953,12 @@
         <v>85.68</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -4967,12 +4971,12 @@
         <v>81.92</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4985,12 +4989,12 @@
         <v>8.32</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5003,12 +5007,12 @@
         <v>57.599999999999994</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5021,12 +5025,12 @@
         <v>60.8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -5039,12 +5043,12 @@
         <v>60.48</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5057,12 +5061,12 @@
         <v>51.12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5075,12 +5079,12 @@
         <v>24.64</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -5093,12 +5097,12 @@
         <v>81.84</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -5111,12 +5115,12 @@
         <v>546</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5131,7 +5135,7 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5146,7 +5150,7 @@
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5159,12 +5163,12 @@
         <v>586.26</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5180,7 +5184,7 @@
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5195,7 +5199,7 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -5210,7 +5214,7 @@
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -5225,7 +5229,7 @@
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5240,7 +5244,7 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5255,7 +5259,7 @@
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5268,7 +5272,7 @@
         <v>41.76</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5373,7 +5377,7 @@
     </row>
     <row r="33" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5415,7 +5419,7 @@
     </row>
     <row r="80" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5423,12 +5427,12 @@
         <v>172.69</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5436,7 +5440,7 @@
         <v>737.6</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5444,7 +5448,7 @@
     </row>
     <row r="105" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F105" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5452,7 +5456,7 @@
         <v>4871.95</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5461,7 +5465,7 @@
         <v>12785.529999999999</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5505,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5549,13 +5553,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5571,26 +5578,35 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="4">
+        <v>650</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
         <v>40</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>7000</v>
       </c>
-      <c r="D4" t="s">
-        <v>210</v>
+      <c r="D5" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5615,24 +5631,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
       <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
         <v>188</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>189</v>
-      </c>
-      <c r="F1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>15.5</v>
@@ -5674,27 +5690,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
       </c>
       <c r="C2">
         <v>7668</v>
@@ -5712,10 +5728,10 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
         <v>228</v>
-      </c>
-      <c r="B3" t="s">
-        <v>229</v>
       </c>
       <c r="C3">
         <v>91</v>
@@ -5727,10 +5743,10 @@
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
       </c>
       <c r="C4">
         <v>1230</v>
@@ -5748,10 +5764,10 @@
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
       </c>
       <c r="C5">
         <v>1160</v>
@@ -5769,10 +5785,10 @@
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
       </c>
       <c r="C6">
         <v>1160</v>
@@ -5790,10 +5806,10 @@
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
         <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
       </c>
       <c r="C7">
         <v>1190</v>
@@ -5811,10 +5827,10 @@
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
         <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
       </c>
       <c r="C8">
         <v>800</v>
@@ -5832,10 +5848,10 @@
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
       </c>
       <c r="C9">
         <v>1160</v>
@@ -5853,7 +5869,7 @@
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F10">
         <v>727</v>
@@ -5877,7 +5893,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5904,7 +5920,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4">
         <f>A2*B2</f>
@@ -5929,21 +5945,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
         <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>285</v>
@@ -5951,7 +5967,7 @@
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3">
         <v>2.145</v>
@@ -6005,7 +6021,7 @@
         <v>3.0049999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <v>270</v>
@@ -6019,7 +6035,7 @@
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>2.7850000000000001</v>
@@ -6033,7 +6049,7 @@
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <f>SUM(B3:B15)</f>
@@ -6042,7 +6058,7 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="4">
         <v>9167</v>
@@ -6050,7 +6066,7 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21">
         <v>285</v>
@@ -6071,7 +6087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -6083,10 +6099,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -6118,31 +6134,31 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="7">
         <v>5.0999999999999996</v>
@@ -6163,7 +6179,7 @@
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -6184,7 +6200,7 @@
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="7">
         <v>3.1</v>
@@ -6205,7 +6221,7 @@
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="7">
         <v>3.2</v>
@@ -6228,7 +6244,7 @@
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="7">
         <v>5.7</v>
@@ -6249,7 +6265,7 @@
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="7">
         <v>8.1</v>
@@ -6270,7 +6286,7 @@
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="7">
         <v>1.33</v>
@@ -6305,10 +6321,10 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C13" s="7">
         <v>3.2</v>
@@ -6331,7 +6347,7 @@
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="7">
         <v>3.2</v>
@@ -6354,7 +6370,7 @@
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="7">
         <v>3.1</v>
@@ -6377,7 +6393,7 @@
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="7">
         <v>1.4</v>
@@ -6398,7 +6414,7 @@
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C17" s="7">
         <v>4.7</v>
@@ -6419,7 +6435,7 @@
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="7">
         <v>5.0999999999999996</v>
@@ -6440,13 +6456,13 @@
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
@@ -6460,7 +6476,7 @@
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="7">
         <v>2.4</v>
@@ -6497,10 +6513,10 @@
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="7">
         <v>5.0999999999999996</v>
@@ -6523,7 +6539,7 @@
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="7">
         <v>8</v>
@@ -6558,16 +6574,16 @@
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7">
@@ -6581,7 +6597,7 @@
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="7">
         <v>8.5</v>
@@ -6602,7 +6618,7 @@
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="7">
         <v>8.5</v>
@@ -6622,7 +6638,7 @@
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="10">
         <f>SUM(F5:F27)</f>
@@ -6635,22 +6651,22 @@
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
         <v>176</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>177</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>178</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>179</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>180</v>
-      </c>
-      <c r="G30" t="s">
-        <v>181</v>
       </c>
       <c r="H30" t="s">
         <v>101</v>
@@ -6658,7 +6674,7 @@
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31">
         <v>240</v>
@@ -6685,7 +6701,7 @@
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="2">
         <f>SUM(G28,H31)</f>

--- a/新屋装修.xlsx
+++ b/新屋装修.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修\Remodelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Remodelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F29D07F-8826-4063-A027-D5F4A4AB8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="10845" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="10845" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="电器" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <sheet name=" 洁具五金" sheetId="15" r:id="rId14"/>
     <sheet name="面板和漏电开关" sheetId="19" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1442,7 +1441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2444,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
@@ -3123,34 +3122,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" location="detail" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H8" r:id="rId4" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H9" r:id="rId5" location="detail" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H19" r:id="rId10" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H32" r:id="rId11" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H37" r:id="rId12" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H42" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H45" r:id="rId21" location="crumb-wrap" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H6" r:id="rId22" location="detail" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H2" r:id="rId23" location="detail" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H3" r:id="rId1" location="detail"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4" location="crumb-wrap"/>
+    <hyperlink ref="H9" r:id="rId5" location="detail"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H24" r:id="rId7"/>
+    <hyperlink ref="H28" r:id="rId8"/>
+    <hyperlink ref="H21" r:id="rId9"/>
+    <hyperlink ref="H19" r:id="rId10" location="crumb-wrap"/>
+    <hyperlink ref="H32" r:id="rId11" location="crumb-wrap"/>
+    <hyperlink ref="H37" r:id="rId12" location="crumb-wrap"/>
+    <hyperlink ref="H13" r:id="rId13"/>
+    <hyperlink ref="H16" r:id="rId14"/>
+    <hyperlink ref="H22" r:id="rId15"/>
+    <hyperlink ref="H25" r:id="rId16"/>
+    <hyperlink ref="H29" r:id="rId17"/>
+    <hyperlink ref="H38" r:id="rId18"/>
+    <hyperlink ref="H41" r:id="rId19"/>
+    <hyperlink ref="H42" r:id="rId20"/>
+    <hyperlink ref="H45" r:id="rId21" location="crumb-wrap"/>
+    <hyperlink ref="H6" r:id="rId22" location="detail"/>
+    <hyperlink ref="H2" r:id="rId23" location="detail"/>
+    <hyperlink ref="H12" r:id="rId24"/>
+    <hyperlink ref="H15" r:id="rId25"/>
+    <hyperlink ref="H34" r:id="rId26"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H36" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
@@ -3158,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3298,7 +3297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3653,10 +3652,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" location="crumb-wrap" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="G19" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="G20" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId1" location="crumb-wrap"/>
+    <hyperlink ref="G19" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G20" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3664,10 +3663,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4024,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4279,7 +4278,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1" xr:uid="{B3590EA4-D969-43A3-93E8-FDC4D137B95A}"/>
+    <hyperlink ref="I14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4287,7 +4286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -4890,11 +4889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5153,14 +5152,14 @@
         <v>304</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>293.13</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>586.26</v>
+        <v>293.13</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>322</v>
@@ -5202,14 +5201,14 @@
         <v>330</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>36.33</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>217.98</v>
+        <v>108.99</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5278,25 +5277,25 @@
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="4">
         <f>SUM(D2:D22)</f>
-        <v>3998.87</v>
+        <v>3596.7499999999995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="crumb-wrap" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" location="none" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" location="crumb-wrap" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="E12" r:id="rId6" location="crumb-wrap" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
-    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
-    <hyperlink ref="E22" r:id="rId12" location="none" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
+    <hyperlink ref="E2" r:id="rId1" location="crumb-wrap"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3" location="none"/>
+    <hyperlink ref="E5" r:id="rId4" location="crumb-wrap"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6" location="crumb-wrap"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E11" r:id="rId11"/>
+    <hyperlink ref="E22" r:id="rId12" location="none"/>
+    <hyperlink ref="E15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -5304,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:H119"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
@@ -5471,14 +5470,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F51" r:id="rId4" location="crumb-wrap" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F74" r:id="rId5" location="none" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F81" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F92" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F106" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F34" r:id="rId3"/>
+    <hyperlink ref="F51" r:id="rId4" location="crumb-wrap"/>
+    <hyperlink ref="F74" r:id="rId5" location="none"/>
+    <hyperlink ref="F81" r:id="rId6"/>
+    <hyperlink ref="F92" r:id="rId7"/>
+    <hyperlink ref="F106" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId9"/>
@@ -5486,7 +5485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5544,7 +5543,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="detail" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" location="detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5552,7 +5551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5612,7 +5611,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5620,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5676,7 +5675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5889,7 +5888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5934,7 +5933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6084,7 +6083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
